--- a/putos/ñk,vsc.xlsx
+++ b/putos/ñk,vsc.xlsx
@@ -11,8 +11,43 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="10">
+  <si>
+    <t>wdfvj,.qme sv</t>
+  </si>
+  <si>
+    <t>wrdfvw-lj d,vm</t>
+  </si>
+  <si>
+    <t>dca vñ-</t>
+  </si>
+  <si>
+    <t>wdf</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>SAFDS|</t>
+  </si>
+  <si>
+    <t>DXSZ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,7 +95,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +203,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,12 +377,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L17" sqref="K14:L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15">
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15">
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15">
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15">
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15">
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
